--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)(チーム鵜澤)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)(チーム鵜澤)_1.0.0.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">＜非会員・ログイン状態で利用できる画面の共通事項＞ </t>
   </si>
   <si>
-    <t xml:space="preserve">・サイドバーには、価格別検索スライドバーが表示される</t>
+    <t xml:space="preserve">・サイドバーには、価格別検索スライダーが表示される</t>
   </si>
   <si>
     <t xml:space="preserve">・サイドバーで、検索条件を指定すると、2-1-2-1商品一覧画面が表示される</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">&lt;一般会員のみ利用できる画面の遷移&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">・注文詳細画面から注文した商品の発送状況等が確認できる</t>
+    <t xml:space="preserve">・注文詳細画面から注文した商品の配達状況・配達番号が確認できる</t>
   </si>
   <si>
     <t xml:space="preserve">注文一覧(リンク)</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">画面遷移図(運用管理者)</t>
   </si>
   <si>
-    <t xml:space="preserve">・注文詳細画面から発送状況等を確認できる</t>
+    <t xml:space="preserve">・注文詳細画面から配達状況を更新できる</t>
   </si>
   <si>
     <t xml:space="preserve">・注文詳細画面から配達番号を入力できる</t>
@@ -370,7 +370,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,13 +455,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>61200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>194760</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -471,7 +471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="556560" y="4372920"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -504,15 +504,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>2-1-1-1</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -523,15 +525,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>トップ画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -543,14 +547,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>106560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:colOff>50400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -560,7 +564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3821400" y="1813680"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -593,15 +597,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>2-2-1-2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -612,15 +618,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>商品詳細画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -633,13 +641,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>141840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>192960</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -649,7 +657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3856680" y="4266720"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -682,15 +690,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>2-1-2-1</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -701,15 +711,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>商品一覧画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -722,13 +734,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>15120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -738,7 +750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1996200" y="5034960"/>
-          <a:ext cx="1856160" cy="189720"/>
+          <a:ext cx="1855800" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -768,14 +780,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>156600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -785,7 +797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4119120" y="3273480"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -815,14 +827,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>149400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -831,16 +843,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1635480" y="5735880"/>
-          <a:ext cx="2607840" cy="737280"/>
+          <a:off x="1635480" y="5735160"/>
+          <a:ext cx="2607480" cy="736920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 2607840"/>
-            <a:gd name="textAreaRight" fmla="*/ 2609640 w 2607840"/>
-            <a:gd name="textAreaTop" fmla="*/ 1080 h 737280"/>
-            <a:gd name="textAreaBottom" fmla="*/ 740160 h 737280"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 2607480"/>
+            <a:gd name="textAreaRight" fmla="*/ 2609640 w 2607480"/>
+            <a:gd name="textAreaTop" fmla="*/ 1080 h 736920"/>
+            <a:gd name="textAreaBottom" fmla="*/ 740160 h 736920"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -890,13 +902,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>230040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>157680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,8 +917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4687920" y="3315960"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:off x="4687920" y="3315240"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -936,14 +948,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>46440</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:colOff>237960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>193320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -953,7 +965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="789480" y="8965080"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -986,15 +998,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>2-1-1-1</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1005,15 +1019,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>トップ画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1025,14 +1041,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:colOff>176400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1042,7 +1058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2283120" y="9558720"/>
-          <a:ext cx="1856160" cy="189720"/>
+          <a:ext cx="1855800" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1072,14 +1088,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>132480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>76320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1089,7 +1105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4095000" y="8863920"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1122,15 +1138,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>5-1-1-2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1141,15 +1159,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>注文一覧画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1159,7 +1179,8 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1171,14 +1192,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1188,7 +1209,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4458240" y="10492560"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1218,14 +1239,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,8 +1255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4953240" y="10492560"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:off x="4953240" y="10491840"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1265,14 +1286,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>138960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>198720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1282,7 +1303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4101480" y="11570760"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1315,15 +1336,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>5-2-1-2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1334,15 +1357,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>注文詳細画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1352,7 +1377,8 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1364,14 +1390,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1381,7 +1407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="820440" y="15219360"/>
-          <a:ext cx="1857240" cy="1429920"/>
+          <a:ext cx="1856880" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1414,15 +1440,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>1-3-1-3</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1433,15 +1461,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>管理者用メニュー画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1453,14 +1483,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>192240</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1470,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2793960" y="15850440"/>
-          <a:ext cx="1856160" cy="189720"/>
+          <a:ext cx="1855800" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1500,14 +1530,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>13320</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1517,7 +1547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4775040" y="15211440"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1550,15 +1580,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>5-1-1-3</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1569,15 +1601,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>注文一覧画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1587,7 +1621,8 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1599,14 +1634,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1616,7 +1651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4953240" y="16801920"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1646,14 +1681,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1662,8 +1697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5696280" y="16802280"/>
-          <a:ext cx="175320" cy="997920"/>
+          <a:off x="5696280" y="16801560"/>
+          <a:ext cx="174960" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1693,14 +1728,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1710,7 +1745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4782600" y="17999640"/>
-          <a:ext cx="1429920" cy="1429920"/>
+          <a:ext cx="1429560" cy="1429560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1743,15 +1778,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>5-2-1-3</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1762,15 +1799,17 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="ja-JP" sz="1200" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="游明朝"/>
             </a:rPr>
             <a:t>注文詳細画面</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1780,7 +1819,8 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
             <a:latin typeface="游明朝"/>
           </a:endParaRPr>
         </a:p>
@@ -1987,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +2039,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2033,8 +2073,8 @@
   </sheetPr>
   <dimension ref="B2:Y89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A76" colorId="64" zoomScale="85" zoomScaleNormal="75" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P95" activeCellId="0" sqref="P95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A64" colorId="64" zoomScale="85" zoomScaleNormal="75" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,33 +2082,32 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="7" width="3.25"/>
   </cols>
   <sheetData>
-    <row r="2" s="8" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M19" s="7" t="s">
         <v>9</v>
       </c>
@@ -2076,30 +2115,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I31" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="7" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2144,7 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
@@ -2122,24 +2159,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K49" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N57" s="0"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K49" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N57" s="11"/>
       <c r="P57" s="14" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P58" s="14" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
